--- a/biology/Zoologie/Emblyna/Emblyna.xlsx
+++ b/biology/Zoologie/Emblyna/Emblyna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emblyna est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emblyna est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent pour la plupart en zone holarctique et quelques-unes en zone néotropicale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent pour la plupart en zone holarctique et quelques-unes en zone néotropicale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 24/03/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 24/03/2023) :
 Emblyna acoreensis Wunderlich, 1992
 Emblyna aiko (Chamberlin &amp; Gertsch, 1958)
 Emblyna altamira (Gertsch &amp; Davis, 1942)
@@ -649,7 +665,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Chamberlin en 1948 dans les Dictynidae.
 </t>
@@ -680,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1948 : « The genera of North American Dictynidae. » Bulletin of the University of Utah, vol. 38, no 15, p. 1-31.</t>
         </is>
